--- a/Tests/UnderReview/Cotton/Observed/WarraObserved.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/WarraObserved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2FEBA-B3BF-4DD6-9268-CEAC1EE168C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F68CDE-EFF7-4E01-A2CD-E2B462D3B2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -459,151 +459,150 @@
   <dimension ref="A1:AE1663"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7020" ySplit="765" activePane="bottomRight"/>
-      <selection sqref="A1:A1048576"/>
+      <pane xSplit="7020" ySplit="765"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:A10"/>
       <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.9296875" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="25.73046875" customWidth="1"/>
-    <col min="15" max="15" width="38.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.06640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="17.7109375" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.3984375" customWidth="1"/>
-    <col min="31" max="31" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="33.3984375" customWidth="1"/>
-    <col min="33" max="33" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.42578125" customWidth="1"/>
+    <col min="31" max="31" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.42578125" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.1328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="30.265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="34.1328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31.86328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="26" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="33.265625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="32.86328125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="23" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="23" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="23" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="23" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="23" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="23" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="23" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="23" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="23" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="24" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="24" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="24" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="19" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="19" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="19" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="19" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="19" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="19" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="19" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="19" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="147" max="154" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="156" max="163" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="147" max="154" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="163" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -665,7 +664,7 @@
         <v>13.35630107977639</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -683,7 +682,7 @@
         <v>54.66896590693208</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -701,7 +700,7 @@
         <v>83.719770663804383</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -737,7 +736,7 @@
         <v>3.011635129970085</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -757,7 +756,7 @@
         <v>8.6265584711909185</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -777,7 +776,7 @@
         <v>12.406250210939977</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -797,7 +796,7 @@
         <v>7.1215079511434283</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -817,7 +816,7 @@
         <v>7.9749258710875583</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -837,49 +836,49 @@
         <v>6.8382911166046192</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -889,7 +888,7 @@
       <c r="P17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -899,7 +898,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -914,7 +913,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -930,7 +929,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -940,7 +939,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -950,7 +949,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -963,7 +962,7 @@
       <c r="AC23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -973,7 +972,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -981,7 +980,7 @@
       <c r="F25" s="1"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -989,7 +988,7 @@
       <c r="F26" s="1"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -997,7 +996,7 @@
       <c r="F27" s="1"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1005,7 +1004,7 @@
       <c r="F28" s="1"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1013,7 +1012,7 @@
       <c r="F29" s="1"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1021,7 +1020,7 @@
       <c r="F30" s="1"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1029,21 +1028,21 @@
       <c r="F31" s="1"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1051,7 +1050,7 @@
       <c r="F34" s="1"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1059,14 +1058,14 @@
       <c r="F35" s="1"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1074,35 +1073,35 @@
       <c r="F37" s="1"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1110,7 +1109,7 @@
       <c r="F42" s="1"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1118,35 +1117,35 @@
       <c r="F43" s="1"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="1663" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1641:FG1820">
     <sortCondition ref="B2:B2271"/>

--- a/Tests/UnderReview/Cotton/Observed/WarraObserved.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/WarraObserved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F68CDE-EFF7-4E01-A2CD-E2B462D3B2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C437262-2E91-42B7-A66F-C3024F47A110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -459,150 +459,150 @@
   <dimension ref="A1:AE1663"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7020" ySplit="765"/>
+      <pane xSplit="7020" ySplit="770" topLeftCell="I1" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:A10"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="15" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.73046875" customWidth="1"/>
+    <col min="6" max="6" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="25.73046875" customWidth="1"/>
+    <col min="15" max="15" width="38.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="17.73046875" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.42578125" customWidth="1"/>
-    <col min="31" max="31" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="33.42578125" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.3984375" customWidth="1"/>
+    <col min="31" max="31" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.3984375" customWidth="1"/>
+    <col min="33" max="33" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.86328125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.1328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="31.86328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.59765625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="26" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="33.265625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="32.86328125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="23" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="23" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="23" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="23" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="23" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="23" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="23" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="23" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="23" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="24" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="24" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="24" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="19" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="19" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="19" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="19" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="19" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="19" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="19" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="19" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="154" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="156" max="163" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="147" max="154" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="156" max="163" width="24.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -664,7 +664,7 @@
         <v>13.35630107977639</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -682,7 +682,7 @@
         <v>54.66896590693208</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -700,7 +700,7 @@
         <v>83.719770663804383</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -712,31 +712,31 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5">
-        <v>595.07142857142856</v>
+        <v>681.4</v>
       </c>
       <c r="H5">
-        <v>121.31644208795079</v>
+        <v>37.07056334433922</v>
       </c>
       <c r="I5">
-        <v>147.67999999999998</v>
+        <v>167.6</v>
       </c>
       <c r="J5">
-        <v>29.385156602806092</v>
+        <v>7.4659225819720358</v>
       </c>
       <c r="K5">
-        <v>156.1</v>
+        <v>174.44</v>
       </c>
       <c r="L5">
-        <v>33.50929508573487</v>
+        <v>6.0858853094681287</v>
       </c>
       <c r="M5">
-        <v>9.9614024864024859</v>
+        <v>9.68</v>
       </c>
       <c r="N5">
-        <v>3.011635129970085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -756,7 +756,7 @@
         <v>8.6265584711909185</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -776,7 +776,7 @@
         <v>12.406250210939977</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -796,7 +796,7 @@
         <v>7.1215079511434283</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>7.9749258710875583</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -836,49 +836,49 @@
         <v>6.8382911166046192</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -888,7 +888,7 @@
       <c r="P17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -898,7 +898,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -913,7 +913,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -929,7 +929,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -939,7 +939,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -949,7 +949,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -962,7 +962,7 @@
       <c r="AC23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -972,7 +972,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -980,7 +980,7 @@
       <c r="F25" s="1"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -988,7 +988,7 @@
       <c r="F26" s="1"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -996,7 +996,7 @@
       <c r="F27" s="1"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="F28" s="1"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1012,7 +1012,7 @@
       <c r="F29" s="1"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1020,7 +1020,7 @@
       <c r="F30" s="1"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1028,21 +1028,21 @@
       <c r="F31" s="1"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1050,7 +1050,7 @@
       <c r="F34" s="1"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1058,14 +1058,14 @@
       <c r="F35" s="1"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1073,35 +1073,35 @@
       <c r="F37" s="1"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1109,7 +1109,7 @@
       <c r="F42" s="1"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1117,35 +1117,35 @@
       <c r="F43" s="1"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="1663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1663" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1641:FG1820">
     <sortCondition ref="B2:B2271"/>
@@ -1153,5 +1153,9 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;KFF0000 UNOFFICIAL&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;12&amp;KFF0000 UNOFFICIAL</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>